--- a/Team-Data/2012-13/11-25-2012-13.xlsx
+++ b/Team-Data/2012-13/11-25-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>3.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF2" t="n">
         <v>5</v>
@@ -756,13 +823,13 @@
         <v>6</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -774,13 +841,13 @@
         <v>6</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
         <v>30</v>
       </c>
       <c r="AP2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
@@ -789,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
         <v>25</v>
@@ -798,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
@@ -807,13 +874,13 @@
         <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -848,103 +915,103 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>0.571</v>
+        <v>0.538</v>
       </c>
       <c r="H3" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>78.5</v>
+        <v>76.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.478</v>
+        <v>0.481</v>
       </c>
       <c r="L3" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="M3" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O3" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="P3" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.805</v>
+        <v>0.806</v>
       </c>
       <c r="R3" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="S3" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="T3" t="n">
-        <v>36.9</v>
+        <v>35.8</v>
       </c>
       <c r="U3" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V3" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AA3" t="n">
         <v>20.2</v>
       </c>
-      <c r="AA3" t="n">
-        <v>20.1</v>
-      </c>
       <c r="AB3" t="n">
-        <v>99.3</v>
+        <v>98</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.8</v>
+        <v>-1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -959,19 +1026,19 @@
         <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -986,10 +1053,10 @@
         <v>16</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
         <v>15</v>
@@ -998,10 +1065,10 @@
         <v>21</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -1030,112 +1097,112 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.667</v>
+        <v>0.636</v>
       </c>
       <c r="H4" t="n">
         <v>48</v>
       </c>
       <c r="I4" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>80.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M4" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.325</v>
+        <v>0.327</v>
       </c>
       <c r="O4" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P4" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="R4" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="S4" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="T4" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="U4" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="V4" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="X4" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.9</v>
+        <v>18.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
         <v>5</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN4" t="n">
         <v>23</v>
@@ -1144,22 +1211,22 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>12</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AV4" t="n">
         <v>5</v>
@@ -1168,22 +1235,22 @@
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB4" t="n">
         <v>20</v>
       </c>
       <c r="BC4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -1290,10 +1357,10 @@
         <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
         <v>8</v>
@@ -1302,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1314,7 +1381,7 @@
         <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
         <v>19</v>
@@ -1344,7 +1411,7 @@
         <v>29</v>
       </c>
       <c r="AV5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW5" t="n">
         <v>2</v>
@@ -1359,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB5" t="n">
         <v>17</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
@@ -1484,10 +1551,10 @@
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>16</v>
@@ -1514,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>14</v>
@@ -1526,10 +1593,10 @@
         <v>6</v>
       </c>
       <c r="AV6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX6" t="n">
         <v>17</v>
@@ -1541,13 +1608,13 @@
         <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>26</v>
@@ -1666,31 +1733,31 @@
         <v>27</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM7" t="n">
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
         <v>27</v>
@@ -1702,16 +1769,16 @@
         <v>29</v>
       </c>
       <c r="AT7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="n">
         <v>26</v>
       </c>
       <c r="AV7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1723,13 +1790,13 @@
         <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB7" t="n">
         <v>18</v>
       </c>
       <c r="BC7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -1839,25 +1906,25 @@
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
         <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ8" t="n">
         <v>19</v>
       </c>
       <c r="AK8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
         <v>6</v>
@@ -1866,7 +1933,7 @@
         <v>9</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO8" t="n">
         <v>14</v>
@@ -1875,19 +1942,19 @@
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>15</v>
@@ -1899,16 +1966,16 @@
         <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
         <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC8" t="n">
         <v>15</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -1940,118 +2007,118 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.571</v>
+        <v>0.538</v>
       </c>
       <c r="H9" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I9" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J9" t="n">
-        <v>86.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.45</v>
+        <v>0.444</v>
       </c>
       <c r="L9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M9" t="n">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.316</v>
+        <v>0.313</v>
       </c>
       <c r="O9" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P9" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.676</v>
+        <v>0.667</v>
       </c>
       <c r="R9" t="n">
-        <v>15.6</v>
+        <v>16.2</v>
       </c>
       <c r="S9" t="n">
         <v>32.3</v>
       </c>
       <c r="T9" t="n">
-        <v>47.9</v>
+        <v>48.5</v>
       </c>
       <c r="U9" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="V9" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X9" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z9" t="n">
         <v>19.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ9" t="n">
         <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AN9" t="n">
         <v>25</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP9" t="n">
         <v>19</v>
@@ -2066,19 +2133,19 @@
         <v>8</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AV9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
         <v>25</v>
@@ -2087,13 +2154,13 @@
         <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>13</v>
       </c>
       <c r="BC9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -2122,139 +2189,139 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>0.214</v>
+        <v>0.231</v>
       </c>
       <c r="H10" t="n">
         <v>48</v>
       </c>
       <c r="I10" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="J10" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.44</v>
+        <v>0.437</v>
       </c>
       <c r="L10" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="M10" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.346</v>
+        <v>0.335</v>
       </c>
       <c r="O10" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P10" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.726</v>
+        <v>0.723</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T10" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="U10" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V10" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="W10" t="n">
         <v>6.2</v>
       </c>
       <c r="X10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>92.7</v>
+        <v>92.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-6</v>
+        <v>-4.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
         <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
         <v>28</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
@@ -2263,19 +2330,19 @@
         <v>20</v>
       </c>
       <c r="AY10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>13</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>14</v>
-      </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB10" t="n">
         <v>25</v>
       </c>
       <c r="BC10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
@@ -2400,13 +2467,13 @@
         <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
         <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM11" t="n">
         <v>17</v>
@@ -2421,7 +2488,7 @@
         <v>9</v>
       </c>
       <c r="AQ11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR11" t="n">
         <v>14</v>
@@ -2433,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV11" t="n">
         <v>24</v>
@@ -2442,7 +2509,7 @@
         <v>26</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
         <v>23</v>
@@ -2454,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="BB11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -2564,25 +2631,25 @@
         <v>1.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
       </c>
       <c r="AF12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI12" t="n">
         <v>16</v>
       </c>
-      <c r="AG12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
         <v>23</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
         <v>5</v>
@@ -2615,16 +2682,16 @@
         <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2633,13 +2700,13 @@
         <v>13</v>
       </c>
       <c r="BA12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB12" t="n">
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -2752,10 +2819,10 @@
         <v>17</v>
       </c>
       <c r="AF13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG13" t="n">
         <v>22</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>21</v>
       </c>
       <c r="AH13" t="n">
         <v>4</v>
@@ -2764,7 +2831,7 @@
         <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2773,19 +2840,19 @@
         <v>16</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
         <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP13" t="n">
         <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR13" t="n">
         <v>3</v>
@@ -2794,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>27</v>
@@ -2812,16 +2879,16 @@
         <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>4.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>8</v>
@@ -2940,43 +3007,43 @@
         <v>8</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>18</v>
       </c>
       <c r="AM14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
         <v>7</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS14" t="n">
         <v>19</v>
       </c>
       <c r="AT14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU14" t="n">
         <v>22</v>
@@ -2988,16 +3055,16 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ14" t="n">
         <v>28</v>
       </c>
       <c r="BA14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB14" t="n">
         <v>11</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -3113,22 +3180,22 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK15" t="n">
         <v>6</v>
@@ -3140,7 +3207,7 @@
         <v>7</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3167,13 +3234,13 @@
         <v>29</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
         <v>8</v>
@@ -3182,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3304,16 +3371,16 @@
         <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>22</v>
@@ -3322,7 +3389,7 @@
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO16" t="n">
         <v>4</v>
@@ -3334,16 +3401,16 @@
         <v>2</v>
       </c>
       <c r="AR16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT16" t="n">
         <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AV16" t="n">
         <v>8</v>
@@ -3364,10 +3431,10 @@
         <v>7</v>
       </c>
       <c r="BB16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -3474,25 +3541,25 @@
         <v>4.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
       </c>
       <c r="AG17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI17" t="n">
         <v>3</v>
       </c>
-      <c r="AH17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>4</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
         <v>1</v>
@@ -3510,10 +3577,10 @@
         <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3522,7 +3589,7 @@
         <v>13</v>
       </c>
       <c r="AT17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
@@ -3543,7 +3610,7 @@
         <v>11</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3665,10 +3732,10 @@
         <v>8</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
         <v>1</v>
@@ -3683,7 +3750,7 @@
         <v>22</v>
       </c>
       <c r="AM18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN18" t="n">
         <v>26</v>
@@ -3695,10 +3762,10 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS18" t="n">
         <v>11</v>
@@ -3713,10 +3780,10 @@
         <v>7</v>
       </c>
       <c r="AW18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX18" t="n">
         <v>5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>6</v>
       </c>
       <c r="AY18" t="n">
         <v>2</v>
@@ -3731,7 +3798,7 @@
         <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -3838,34 +3905,34 @@
         <v>-1.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
@@ -3880,10 +3947,10 @@
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
         <v>10</v>
@@ -3898,7 +3965,7 @@
         <v>15</v>
       </c>
       <c r="AX19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY19" t="n">
         <v>18</v>
@@ -3910,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BC19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>0.25</v>
+        <v>0.273</v>
       </c>
       <c r="H20" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I20" t="n">
-        <v>34.9</v>
+        <v>35.1</v>
       </c>
       <c r="J20" t="n">
-        <v>79.3</v>
+        <v>78.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.441</v>
+        <v>0.446</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M20" t="n">
-        <v>17.8</v>
+        <v>18.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.393</v>
+        <v>0.388</v>
       </c>
       <c r="O20" t="n">
-        <v>16.8</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.795</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="S20" t="n">
-        <v>30.6</v>
+        <v>31.1</v>
       </c>
       <c r="T20" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U20" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V20" t="n">
         <v>14.6</v>
@@ -4005,28 +4072,28 @@
         <v>5.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>93.7</v>
+        <v>94.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-6.3</v>
+        <v>-5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
         <v>26</v>
@@ -4035,43 +4102,43 @@
         <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AS20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>10</v>
@@ -4089,10 +4156,10 @@
         <v>12</v>
       </c>
       <c r="BA20" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB20" t="n">
         <v>23</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>24</v>
       </c>
       <c r="BC20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>0.75</v>
+        <v>0.727</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
@@ -4142,46 +4209,46 @@
         <v>37.5</v>
       </c>
       <c r="J21" t="n">
-        <v>82.2</v>
+        <v>82.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L21" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="M21" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.417</v>
+        <v>0.407</v>
       </c>
       <c r="O21" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="P21" t="n">
-        <v>20.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.78</v>
+        <v>0.763</v>
       </c>
       <c r="R21" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="T21" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="U21" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="V21" t="n">
         <v>11.2</v>
       </c>
       <c r="W21" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X21" t="n">
         <v>4.1</v>
@@ -4193,19 +4260,19 @@
         <v>18.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>103.4</v>
+        <v>101.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF21" t="n">
         <v>2</v>
@@ -4214,16 +4281,16 @@
         <v>4</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
         <v>6</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,25 +4299,25 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU21" t="n">
         <v>25</v>
@@ -4259,16 +4326,16 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX21" t="n">
         <v>27</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA21" t="n">
         <v>26</v>
@@ -4277,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="BC21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>5</v>
@@ -4396,10 +4463,10 @@
         <v>5</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
@@ -4414,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="AN22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4435,13 +4502,13 @@
         <v>17</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
         <v>27</v>
       </c>
       <c r="AW22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX22" t="n">
         <v>4</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -4488,109 +4555,109 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>0.385</v>
+        <v>0.417</v>
       </c>
       <c r="H23" t="n">
-        <v>48.4</v>
+        <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>36.3</v>
+        <v>35.9</v>
       </c>
       <c r="J23" t="n">
-        <v>82.8</v>
+        <v>82.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L23" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="M23" t="n">
-        <v>15.5</v>
+        <v>14.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.371</v>
+        <v>0.364</v>
       </c>
       <c r="O23" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="P23" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.765</v>
+        <v>0.754</v>
       </c>
       <c r="R23" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U23" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="V23" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="W23" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="X23" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.5</v>
+        <v>-3.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
       </c>
       <c r="AF23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH23" t="n">
         <v>22</v>
       </c>
-      <c r="AG23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>20</v>
-      </c>
       <c r="AI23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>16</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM23" t="n">
         <v>27</v>
@@ -4605,10 +4672,10 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AR23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS23" t="n">
         <v>5</v>
@@ -4617,19 +4684,19 @@
         <v>9</v>
       </c>
       <c r="AU23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ23" t="n">
         <v>18</v>
@@ -4638,10 +4705,10 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BC23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -4670,133 +4737,133 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>0.571</v>
+        <v>0.538</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
       </c>
       <c r="I24" t="n">
-        <v>35.2</v>
+        <v>34.9</v>
       </c>
       <c r="J24" t="n">
-        <v>83.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.422</v>
+        <v>0.418</v>
       </c>
       <c r="L24" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="M24" t="n">
         <v>19.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.38</v>
+        <v>0.373</v>
       </c>
       <c r="O24" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="P24" t="n">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.774</v>
+        <v>0.777</v>
       </c>
       <c r="R24" t="n">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="S24" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.9</v>
       </c>
       <c r="U24" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V24" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="W24" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>18.1</v>
+        <v>17.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.2</v>
+        <v>91.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF24" t="n">
         <v>11</v>
       </c>
       <c r="AG24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>10</v>
       </c>
-      <c r="AH24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>12</v>
-      </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
         <v>27</v>
       </c>
       <c r="AP24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS24" t="n">
         <v>10</v>
       </c>
-      <c r="AR24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>12</v>
-      </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AU24" t="n">
         <v>17</v>
@@ -4805,13 +4872,13 @@
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX24" t="n">
         <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4820,7 +4887,7 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC24" t="n">
         <v>20</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -4852,76 +4919,76 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" t="n">
         <v>6</v>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>0.429</v>
+        <v>0.462</v>
       </c>
       <c r="H25" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I25" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J25" t="n">
-        <v>88</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L25" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M25" t="n">
-        <v>17.9</v>
+        <v>18.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O25" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="P25" t="n">
         <v>20.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.747</v>
+        <v>0.732</v>
       </c>
       <c r="R25" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="S25" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="T25" t="n">
         <v>41.9</v>
       </c>
       <c r="U25" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V25" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W25" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="X25" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB25" t="n">
         <v>100.5</v>
@@ -4930,19 +4997,19 @@
         <v>-2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4951,13 +5018,13 @@
         <v>2</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM25" t="n">
         <v>20</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>23</v>
       </c>
       <c r="AN25" t="n">
         <v>19</v>
@@ -4969,25 +5036,25 @@
         <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AS25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT25" t="n">
         <v>13</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV25" t="n">
         <v>4</v>
       </c>
       <c r="AW25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
@@ -4999,13 +5066,13 @@
         <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -5034,109 +5101,109 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
         <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.462</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>48.8</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="J26" t="n">
-        <v>82.7</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K26" t="n">
         <v>0.445</v>
       </c>
       <c r="L26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>16.2</v>
+        <v>16.8</v>
       </c>
       <c r="P26" t="n">
-        <v>21.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="R26" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S26" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="T26" t="n">
-        <v>38.8</v>
+        <v>39.2</v>
       </c>
       <c r="U26" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="V26" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="W26" t="n">
         <v>8.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.5</v>
+        <v>-2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>5</v>
@@ -5145,13 +5212,13 @@
         <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
         <v>20</v>
       </c>
       <c r="AQ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR26" t="n">
         <v>16</v>
@@ -5169,25 +5236,25 @@
         <v>18</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX26" t="n">
         <v>24</v>
       </c>
       <c r="AY26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -5294,28 +5361,28 @@
         <v>-4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
       </c>
       <c r="AH27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>8</v>
       </c>
-      <c r="AI27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9</v>
-      </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>24</v>
@@ -5324,16 +5391,16 @@
         <v>25</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR27" t="n">
         <v>15</v>
@@ -5348,10 +5415,10 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -5398,85 +5465,85 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>0.786</v>
+        <v>0.769</v>
       </c>
       <c r="H28" t="n">
-        <v>48.7</v>
+        <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>38.6</v>
+        <v>38.2</v>
       </c>
       <c r="J28" t="n">
-        <v>81.8</v>
+        <v>80.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.472</v>
+        <v>0.476</v>
       </c>
       <c r="L28" t="n">
         <v>7.2</v>
       </c>
       <c r="M28" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.354</v>
+        <v>0.36</v>
       </c>
       <c r="O28" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S28" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T28" t="n">
-        <v>40.8</v>
+        <v>39.9</v>
       </c>
       <c r="U28" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="V28" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="X28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z28" t="n">
         <v>18.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.9</v>
+        <v>100.2</v>
       </c>
       <c r="AC28" t="n">
         <v>5.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,28 +5555,28 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -5518,22 +5585,22 @@
         <v>9</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AT28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX28" t="n">
         <v>21</v>
@@ -5545,10 +5612,10 @@
         <v>5</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -5580,115 +5647,115 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
       </c>
       <c r="F29" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="H29" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="L29" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="O29" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="R29" t="n">
         <v>11</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="H29" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="I29" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>84.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="L29" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="M29" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="O29" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="P29" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="R29" t="n">
-        <v>11.4</v>
-      </c>
       <c r="S29" t="n">
-        <v>30.1</v>
+        <v>29.1</v>
       </c>
       <c r="T29" t="n">
-        <v>41.6</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V29" t="n">
         <v>12.9</v>
       </c>
       <c r="W29" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
       </c>
       <c r="AF29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM29" t="n">
         <v>11</v>
       </c>
-      <c r="AM29" t="n">
-        <v>9</v>
-      </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>11</v>
@@ -5697,25 +5764,25 @@
         <v>13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
@@ -5727,7 +5794,7 @@
         <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -5843,10 +5910,10 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
         <v>15</v>
@@ -5858,7 +5925,7 @@
         <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK30" t="n">
         <v>22</v>
@@ -5867,10 +5934,10 @@
         <v>17</v>
       </c>
       <c r="AM30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5879,13 +5946,13 @@
         <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT30" t="n">
         <v>3</v>
@@ -5909,13 +5976,13 @@
         <v>24</v>
       </c>
       <c r="BA30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB30" t="n">
         <v>14</v>
       </c>
       <c r="BC30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-6.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6058,7 +6125,7 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>18</v>
@@ -6073,16 +6140,16 @@
         <v>8</v>
       </c>
       <c r="AU31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AV31" t="n">
         <v>26</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
         <v>17</v>
@@ -6091,7 +6158,7 @@
         <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-25-2012-13</t>
+          <t>2012-11-25</t>
         </is>
       </c>
     </row>
